--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xuyq\桌面\结算单据导出模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,11 +34,32 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="11")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>L17</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +70,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K9")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L16")</t>
         </r>
       </text>
     </comment>
@@ -58,155 +79,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>合计：</t>
   </si>
   <si>
-    <r>
-      <t>单据编号：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{formNo}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>备注：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{remark}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构：${branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商：${supplierName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商联营账单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,50 +119,6 @@
   </si>
   <si>
     <t>税额</t>
-  </si>
-  <si>
-    <t>联系人：${supplierContcat}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话：${supplierPhone}/${supplierMobile}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算时间：${beginDate}~${endDate}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款期限：${payTime}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商货款：${sumSupplierAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保底金额：${supplierMinAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总税额：${sumTaxAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商承担比例：${supplierRate}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商承担税额：${supplierTaxAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他扣款：${otherAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际应付款：${actualAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -388,10 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销售金额：${sumSaleAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${sumSaleAmount}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,8 +237,166 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${taxAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>${sumTaxAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.rowNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+  </si>
+  <si>
+    <t>机构：</t>
+  </si>
+  <si>
+    <t>制单人：</t>
+  </si>
+  <si>
+    <t>制单时间：</t>
+  </si>
+  <si>
+    <t>审核人：</t>
+  </si>
+  <si>
+    <t>审核时间：</t>
+  </si>
+  <si>
+    <t>付款期限：</t>
+  </si>
+  <si>
+    <t>计算时间：</t>
+  </si>
+  <si>
+    <t>最后修改人：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}</t>
+  </si>
+  <si>
+    <t>${createUserName}</t>
+  </si>
+  <si>
+    <t>${createTime}</t>
+  </si>
+  <si>
+    <t>${updateUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${auditUserName}</t>
+  </si>
+  <si>
+    <t>${auditTime}</t>
+  </si>
+  <si>
+    <t>${payTime}</t>
+  </si>
+  <si>
+    <t>${beginDate}~${endDate}</t>
+  </si>
+  <si>
+    <t>供应商：</t>
+  </si>
+  <si>
+    <t>联系人：</t>
+  </si>
+  <si>
+    <t>联系电话：</t>
+  </si>
+  <si>
+    <t>销售金额：</t>
+  </si>
+  <si>
+    <t>供应商货款：</t>
+  </si>
+  <si>
+    <t>保底金额：</t>
+  </si>
+  <si>
+    <t>汇总税额：</t>
+  </si>
+  <si>
+    <t>供应商承担比例：</t>
+  </si>
+  <si>
+    <t>其他扣款：</t>
+  </si>
+  <si>
+    <t>供应商承担税额：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierTaxAmount}</t>
+  </si>
+  <si>
+    <t>实际应付款：</t>
+  </si>
+  <si>
+    <t>${actualAmount}</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>${remark}</t>
+  </si>
+  <si>
+    <t>${supplierName}</t>
+  </si>
+  <si>
+    <t>${supplierContcat}</t>
+  </si>
+  <si>
+    <t>${supplierPhone}/${supplierMobile}</t>
+  </si>
+  <si>
+    <t>${sumSaleAmount}</t>
+  </si>
+  <si>
+    <t>${sumSupplierAmount}</t>
+  </si>
+  <si>
+    <t>${supplierMinAmount}</t>
+  </si>
+  <si>
+    <t>${sumTaxAmount}</t>
+  </si>
+  <si>
+    <t>${supplierRate}</t>
+  </si>
+  <si>
+    <t>${otherAmount}</t>
   </si>
 </sst>
 </file>
@@ -473,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -496,74 +483,74 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,264 +828,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="10"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="15" t="s">
+      <c r="L15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="H17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -21,21 +21,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>yml</author>
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -45,21 +36,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>L17</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>")</t>
+          <t>jx:area(lastCell="L17")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,13 +423,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -523,35 +497,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +805,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,194 +820,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="18" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1042,19 +1017,19 @@
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1063,16 +1038,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
@@ -1080,16 +1055,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
@@ -1097,10 +1072,10 @@
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="9"/>
@@ -1111,10 +1086,10 @@
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="9"/>
@@ -1221,7 +1196,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -110,6 +110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,6 +127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -142,6 +144,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,6 +239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,12 +406,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -805,18 +813,21 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="10"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -393,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +433,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,9 +493,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,7 +827,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
@@ -846,300 +855,300 @@
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="17" t="s">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="16" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="17" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="16" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="16" t="s">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1165,16 +1174,16 @@
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1193,14 +1202,14 @@
       <c r="G17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1" t="s">
         <v>27</v>
       </c>

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -90,13 +90,7 @@
     <t>销售金额</t>
   </si>
   <si>
-    <t>联营扣率</t>
-  </si>
-  <si>
     <t>分成金额</t>
-  </si>
-  <si>
-    <t>销项税率</t>
   </si>
   <si>
     <t>税额</t>
@@ -365,9 +359,6 @@
     <t>${supplierContcat}</t>
   </si>
   <si>
-    <t>${supplierPhone}/${supplierMobile}</t>
-  </si>
-  <si>
     <t>${sumSaleAmount}</t>
   </si>
   <si>
@@ -380,10 +371,23 @@
     <t>${sumTaxAmount}</t>
   </si>
   <si>
-    <t>${supplierRate}</t>
-  </si>
-  <si>
     <t>${otherAmount}</t>
+  </si>
+  <si>
+    <t>${supplierRate}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierPhoneMobile}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联营扣率(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项税率(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -822,7 +826,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,10 +867,10 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -876,19 +880,19 @@
     <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -898,19 +902,19 @@
     <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -920,19 +924,19 @@
     <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -942,19 +946,19 @@
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -964,19 +968,19 @@
     <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -986,19 +990,19 @@
     <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1008,19 +1012,19 @@
     <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1029,19 +1033,19 @@
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1050,19 +1054,19 @@
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -1076,10 +1080,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1093,10 +1097,10 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -1107,16 +1111,16 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>2</v>
@@ -1140,54 +1144,54 @@
         <v>8</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="L16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1200,18 +1204,18 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="L17")</t>
+          <t>jx:area(lastCell="M17")</t>
         </r>
       </text>
     </comment>
@@ -51,7 +51,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="L16")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="M16")</t>
         </r>
       </text>
     </comment>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>合计：</t>
   </si>
@@ -387,6 +387,14 @@
   </si>
   <si>
     <t>销项税率(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -823,27 +831,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -858,343 +867,358 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,24 +1227,25 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierChain.xlsx
+++ b/src/main/resources/template/excel/export/SupplierChain.xlsx
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
